--- a/biology/Botanique/Hyoscyamine/Hyoscyamine.xlsx
+++ b/biology/Botanique/Hyoscyamine/Hyoscyamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La hyoscyamine est un alcaloïde présent dans diverses plantes de la famille des Solanacées, notamment chez les espèces de Solanacées vireuses comme la Belladone, le Datura, la Jusquiame ou la Mandragore. Son nom est d'ailleurs lié à la jusquiame (latin scientifique Hyoscyamus). Une des principales sources commerciales de hyoscyamine est l’espèce Duboisia myoporoides.
@@ -514,7 +526,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son roman La Main de marbre (1932), John Dickson Carr évoque une tentative d'assassinat par l'hyoscyamine utilisée comme poison.
 </t>
